--- a/campos_DB_por_año.xlsx
+++ b/campos_DB_por_año.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="664">
   <si>
     <t xml:space="preserve">Nombre Campo</t>
   </si>
@@ -2027,13 +2027,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2052,21 +2051,96 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2075,14 +2149,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5EB91E"/>
-        <bgColor rgb="FF808000"/>
+        <bgColor rgb="FF00A933"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDE59"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -2094,16 +2210,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008000"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2184,7 +2315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2208,61 +2339,276 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2270,159 +2616,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2430,29 +2636,50 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -2464,7 +2691,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2480,11 +2707,11 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF5EB91E"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -2507,13 +2734,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D67"/>
+  <dimension ref="B2:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
@@ -2521,7 +2748,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3266,109 +3492,109 @@
   </sheetPr>
   <dimension ref="B1:D76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="115.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -3379,7 +3605,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -3390,7 +3616,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -3401,7 +3627,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -3412,7 +3638,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -3423,7 +3649,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -3434,7 +3660,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -3445,7 +3671,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -3456,7 +3682,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -3467,7 +3693,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -3478,7 +3704,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -3489,7 +3715,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -3500,7 +3726,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -3511,29 +3737,29 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -3544,7 +3770,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -3555,7 +3781,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -3566,7 +3792,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -3577,7 +3803,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -3588,7 +3814,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -3599,7 +3825,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -3610,7 +3836,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="24" t="s">
@@ -3621,7 +3847,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -3632,7 +3858,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -3643,7 +3869,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -3654,7 +3880,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -3665,7 +3891,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -3676,7 +3902,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="24" t="s">
@@ -3687,7 +3913,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -4131,1190 +4357,1276 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F129"/>
+  <dimension ref="B1:F130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="103.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="D7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="D8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="D9" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="D10" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="26" t="s">
+      <c r="D11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C12" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B13" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="34"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="34"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B15" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="34"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B16" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="31"/>
+      <c r="D16" s="34"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B17" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B18" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="31"/>
+      <c r="D18" s="34"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="34"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B20" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B20" s="28" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="34"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="26" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C22" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B23" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="34"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B24" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="34"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B25" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="34"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="34"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B27" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B27" s="28" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="34"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B28" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B28" s="26" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B29" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C29" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="31"/>
+      <c r="D29" s="37"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B30" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="34"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B31" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="31"/>
+      <c r="D31" s="34"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B32" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="31"/>
+      <c r="D32" s="34"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B33" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="34"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="34"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B35" s="28" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="34"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B36" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B36" s="26" t="s">
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B37" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C37" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B37" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="35"/>
+      <c r="D37" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B38" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="35"/>
+      <c r="D38" s="38"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B39" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="35"/>
+      <c r="D39" s="38"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B40" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="35"/>
+      <c r="D40" s="38"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B41" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="35"/>
+      <c r="D41" s="38"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B42" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="38"/>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B43" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B43" s="28" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="38"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B44" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="36"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B44" s="26" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="39"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B45" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C45" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B45" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B46" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="34"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B47" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="31"/>
+      <c r="D47" s="34"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B48" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="8"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="34"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B49" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="34"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B50" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B50" s="28" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="34"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B51" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B51" s="26" t="s">
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B52" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C52" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B52" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B53" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="31"/>
+      <c r="D53" s="34"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B54" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="34"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B55" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="34"/>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B56" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B56" s="28" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="34"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B57" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="37" t="s">
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C58" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="41" t="s">
+      <c r="D58" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="43"/>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="43" t="s">
+      <c r="D59" s="46"/>
+      <c r="E59" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F59" s="44" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="41" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="45" t="s">
         <v>118</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="41" t="s">
-        <v>120</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="19" t="s">
+      <c r="E60" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="41" t="s">
-        <v>122</v>
+      <c r="B61" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="19" t="s">
+      <c r="E61" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="41" t="s">
-        <v>124</v>
+      <c r="B62" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="19" t="s">
+      <c r="E62" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="41" t="s">
-        <v>126</v>
+      <c r="B63" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
-      <c r="E63" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="F63" s="19" t="s">
+      <c r="E63" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="41" t="s">
-        <v>128</v>
+      <c r="B64" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="41" t="s">
-        <v>129</v>
+      <c r="B65" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F65" s="19" t="s">
+      <c r="E65" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="41" t="s">
-        <v>131</v>
+      <c r="B66" s="45" t="s">
+        <v>129</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="F66" s="19" t="s">
+      <c r="E66" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="41" t="s">
-        <v>153</v>
+      <c r="B67" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="19" t="s">
+      <c r="E67" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="41" t="s">
-        <v>155</v>
+      <c r="B68" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="19" t="s">
+      <c r="E68" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="41" t="s">
-        <v>157</v>
+      <c r="B69" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" s="19" t="s">
+      <c r="E69" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="44" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="44" t="s">
-        <v>159</v>
+      <c r="B70" s="45" t="s">
+        <v>157</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F71" s="44" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="19" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46" t="s">
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F72" s="44" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B72" s="26" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B73" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C73" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="47" t="s">
+      <c r="D73" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="F72" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B73" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="37" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B74" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F74" s="31" t="s">
+      <c r="E74" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B75" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="F75" s="31" t="s">
+      <c r="E75" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B76" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" s="31" t="s">
+      <c r="E76" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B77" s="27" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77" s="31" t="s">
+      <c r="E77" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B78" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="F78" s="31" t="s">
+      <c r="E78" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B79" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="F79" s="31" t="s">
+      <c r="E79" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B80" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F80" s="31" t="s">
+      <c r="E80" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F80" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B81" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="48" t="s">
+      <c r="E81" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B82" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F82" s="34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B82" s="28" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B83" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="49" t="s">
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="F82" s="33" t="s">
+      <c r="F83" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B83" s="26" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B84" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C84" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B84" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D84" s="31"/>
+      <c r="D84" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B85" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="31"/>
+        <v>207</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="34"/>
+      <c r="F85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B86" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="D86" s="31"/>
+      <c r="D86" s="34"/>
+      <c r="F86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B87" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C87" s="8"/>
-      <c r="D87" s="31"/>
+      <c r="D87" s="34"/>
+      <c r="F87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B88" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C88" s="8"/>
-      <c r="D88" s="31"/>
+      <c r="D88" s="34"/>
+      <c r="F88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B89" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C89" s="8"/>
-      <c r="D89" s="31"/>
+      <c r="D89" s="34"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B90" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90" s="8"/>
-      <c r="D90" s="31"/>
+      <c r="D90" s="34"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B91" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C91" s="8"/>
-      <c r="D91" s="31"/>
+      <c r="D91" s="34"/>
+      <c r="F91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B92" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="8"/>
-      <c r="D92" s="31"/>
+      <c r="D92" s="34"/>
+      <c r="F92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B93" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="8"/>
-      <c r="D93" s="31"/>
+      <c r="D93" s="34"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B94" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" s="8"/>
-      <c r="D94" s="31"/>
+      <c r="D94" s="34"/>
+      <c r="F94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B95" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C95" s="8"/>
-      <c r="D95" s="31"/>
+      <c r="D95" s="34"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B96" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C96" s="8"/>
-      <c r="D96" s="31"/>
+      <c r="D96" s="34"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B97" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C97" s="8"/>
-      <c r="D97" s="31"/>
+      <c r="D97" s="34"/>
+      <c r="F97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B98" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="34"/>
+      <c r="F98" s="31"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B99" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="31"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B99" s="28" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="34"/>
+      <c r="F99" s="31"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B100" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="35"/>
+      <c r="D100" s="36"/>
+      <c r="F100" s="31"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B101" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D100" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="D101" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" s="31"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B102" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D101" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
+      <c r="D102" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C103" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B103" s="26" t="s">
+      <c r="D103" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="56"/>
+      <c r="F103" s="57"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B104" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C104" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D103" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B104" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="35"/>
+      <c r="D104" s="33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B105" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C105" s="8"/>
-      <c r="D105" s="35"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B106" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C106" s="8"/>
-      <c r="D106" s="35"/>
+      <c r="D106" s="38"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B107" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C107" s="8"/>
-      <c r="D107" s="35"/>
+      <c r="D107" s="38"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B108" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C108" s="8"/>
-      <c r="D108" s="35"/>
+      <c r="D108" s="38"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B109" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C109" s="8"/>
-      <c r="D109" s="35"/>
+      <c r="D109" s="38"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B110" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C110" s="8"/>
-      <c r="D110" s="35"/>
+      <c r="D110" s="38"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B111" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="D111" s="35"/>
+      <c r="D111" s="38"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B112" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C112" s="8"/>
-      <c r="D112" s="35"/>
+      <c r="D112" s="38"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B113" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C113" s="8"/>
-      <c r="D113" s="35"/>
+      <c r="D113" s="38"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B114" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C114" s="8"/>
-      <c r="D114" s="35"/>
+      <c r="D114" s="38"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B115" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="38"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B116" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="35"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B116" s="28" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="38"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B117" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="36"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="35"/>
+      <c r="D117" s="39"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B118" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D117" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B118" s="26" t="s">
+      <c r="D118" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B119" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C119" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D118" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B119" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="35"/>
+      <c r="D119" s="33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B120" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C120" s="8"/>
-      <c r="D120" s="35"/>
+      <c r="D120" s="38"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B121" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C121" s="8"/>
-      <c r="D121" s="35"/>
+      <c r="D121" s="38"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B122" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="38"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B123" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="35"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B123" s="28" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="38"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B124" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="C123" s="32"/>
-      <c r="D123" s="36"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D124" s="18" t="n">
-        <v>2</v>
-      </c>
+      <c r="C124" s="35"/>
+      <c r="D124" s="39"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B125" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B126" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D125" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B126" s="26" t="s">
+      <c r="D126" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B127" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C127" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D126" s="30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B127" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="35"/>
+      <c r="D127" s="33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B128" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="38"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B129" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="35"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B129" s="28" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="38"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B130" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="32"/>
-      <c r="D129" s="36"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5334,175 +5646,175 @@
   </sheetPr>
   <dimension ref="B1:D121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="133.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -5513,7 +5825,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -5524,7 +5836,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -5535,7 +5847,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -5546,7 +5858,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -5557,7 +5869,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="27" t="s">
@@ -5568,7 +5880,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -5579,7 +5891,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -5590,7 +5902,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -5601,7 +5913,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -5612,7 +5924,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -5623,7 +5935,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -5634,7 +5946,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -5645,7 +5957,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -5656,7 +5968,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="27" t="s">
@@ -5667,7 +5979,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -5678,10 +5990,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="58" t="s">
         <v>279</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -5689,7 +6001,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="27" t="s">
@@ -5700,7 +6012,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="27" t="s">
@@ -5711,7 +6023,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -5722,7 +6034,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -5733,7 +6045,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="26" t="s">
@@ -5744,7 +6056,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -5755,7 +6067,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="27" t="s">
@@ -5766,7 +6078,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -5777,7 +6089,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="27" t="s">
@@ -5788,7 +6100,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="27" t="s">
@@ -5799,7 +6111,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -5810,145 +6122,145 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D43" s="18" t="n">
+      <c r="D43" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="43" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="43" t="n">
+      <c r="D45" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="43" t="n">
+      <c r="D46" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="43" t="n">
+      <c r="D47" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="43" t="n">
+      <c r="D48" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="43" t="n">
+      <c r="D49" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="43" t="n">
+      <c r="D50" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="43" t="n">
+      <c r="D51" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="43" t="n">
+      <c r="D52" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="43" t="n">
+      <c r="D53" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="43" t="n">
+      <c r="D54" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="46" t="n">
+      <c r="D55" s="50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5959,7 +6271,7 @@
       <c r="C56" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6102,7 +6414,7 @@
       <c r="C69" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6113,7 +6425,7 @@
       <c r="C70" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6322,7 +6634,7 @@
       <c r="C89" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6333,7 +6645,7 @@
       <c r="C90" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D90" s="52" t="n">
+      <c r="D90" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6344,7 +6656,7 @@
       <c r="C91" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D91" s="52" t="n">
+      <c r="D91" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6355,7 +6667,7 @@
       <c r="C92" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="D92" s="52" t="n">
+      <c r="D92" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6366,7 +6678,7 @@
       <c r="C93" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="D93" s="53" t="n">
+      <c r="D93" s="57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6377,7 +6689,7 @@
       <c r="C94" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="D94" s="51" t="s">
+      <c r="D94" s="59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6388,7 +6700,7 @@
       <c r="C95" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D95" s="52" t="n">
+      <c r="D95" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6399,7 +6711,7 @@
       <c r="C96" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D96" s="52" t="n">
+      <c r="D96" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6410,7 +6722,7 @@
       <c r="C97" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D97" s="52" t="n">
+      <c r="D97" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6421,7 +6733,7 @@
       <c r="C98" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D98" s="52" t="n">
+      <c r="D98" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6432,7 +6744,7 @@
       <c r="C99" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D99" s="52" t="n">
+      <c r="D99" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6443,7 +6755,7 @@
       <c r="C100" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="53" t="n">
+      <c r="D100" s="57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6487,7 +6799,7 @@
       <c r="C104" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6498,7 +6810,7 @@
       <c r="C105" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D105" s="52" t="n">
+      <c r="D105" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6509,7 +6821,7 @@
       <c r="C106" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="52" t="n">
+      <c r="D106" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6520,7 +6832,7 @@
       <c r="C107" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="52" t="n">
+      <c r="D107" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6531,7 +6843,7 @@
       <c r="C108" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="52" t="n">
+      <c r="D108" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6542,7 +6854,7 @@
       <c r="C109" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D109" s="52" t="n">
+      <c r="D109" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6553,7 +6865,7 @@
       <c r="C110" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D110" s="53" t="n">
+      <c r="D110" s="57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6608,7 +6920,7 @@
       <c r="C115" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D115" s="51" t="s">
+      <c r="D115" s="59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6619,7 +6931,7 @@
       <c r="C116" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D116" s="52" t="n">
+      <c r="D116" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6630,7 +6942,7 @@
       <c r="C117" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D117" s="52" t="n">
+      <c r="D117" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6641,7 +6953,7 @@
       <c r="C118" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D118" s="52" t="n">
+      <c r="D118" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6652,7 +6964,7 @@
       <c r="C119" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D119" s="52" t="n">
+      <c r="D119" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6663,7 +6975,7 @@
       <c r="C120" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="52" t="n">
+      <c r="D120" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6671,7 +6983,7 @@
       <c r="B121" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="60" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6691,24 +7003,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F223"/>
+  <dimension ref="B1:G223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6717,9 +7029,12 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -6728,9 +7043,10 @@
       <c r="E2" s="0" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -6739,19 +7055,22 @@
       <c r="E3" s="0" t="s">
         <v>328</v>
       </c>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -6760,42 +7079,49 @@
       <c r="E6" s="0" t="s">
         <v>328</v>
       </c>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -6808,9 +7134,10 @@
       <c r="F13" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -6823,9 +7150,10 @@
       <c r="F14" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -6838,9 +7166,10 @@
       <c r="F15" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -6853,9 +7182,10 @@
       <c r="F16" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -6868,9 +7198,10 @@
       <c r="F17" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -6883,9 +7214,10 @@
       <c r="F18" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="45" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -6898,9 +7230,10 @@
       <c r="F19" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -6913,9 +7246,10 @@
       <c r="F20" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -6928,9 +7262,10 @@
       <c r="F21" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -6943,9 +7278,10 @@
       <c r="F22" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -6958,9 +7294,10 @@
       <c r="F23" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="45" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -6973,9 +7310,10 @@
       <c r="F24" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -6988,9 +7326,10 @@
       <c r="F25" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="45" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -7003,9 +7342,10 @@
       <c r="F26" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -7018,9 +7358,10 @@
       <c r="F27" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -7033,9 +7374,10 @@
       <c r="F28" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="45" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -7048,9 +7390,10 @@
       <c r="F29" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="19" t="s">
@@ -7063,9 +7406,10 @@
       <c r="F30" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="19" t="s">
@@ -7078,9 +7422,10 @@
       <c r="F31" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="45" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="19" t="s">
@@ -7093,9 +7438,10 @@
       <c r="F32" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -7108,9 +7454,10 @@
       <c r="F33" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="45" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="19" t="s">
@@ -7123,9 +7470,10 @@
       <c r="F34" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="45" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -7138,9 +7486,10 @@
       <c r="F35" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -7153,9 +7502,10 @@
       <c r="F36" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="45" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="19" t="s">
@@ -7168,9 +7518,10 @@
       <c r="F37" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="19" t="s">
@@ -7183,9 +7534,10 @@
       <c r="F38" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="45" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -7198,9 +7550,10 @@
       <c r="F39" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -7213,9 +7566,10 @@
       <c r="F40" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="45" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -7228,9 +7582,10 @@
       <c r="F41" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="45" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="19" t="s">
@@ -7243,9 +7598,10 @@
       <c r="F42" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="45" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -7258,9 +7614,10 @@
       <c r="F43" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="45" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="19" t="s">
@@ -7273,9 +7630,10 @@
       <c r="F44" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -7288,9 +7646,10 @@
       <c r="F45" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -7303,9 +7662,10 @@
       <c r="F46" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="45" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="19" t="s">
@@ -7318,9 +7678,10 @@
       <c r="F47" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="45" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -7333,9 +7694,10 @@
       <c r="F48" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="45" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -7348,9 +7710,10 @@
       <c r="F49" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="45" t="s">
         <v>100</v>
       </c>
       <c r="C50" s="19" t="s">
@@ -7363,9 +7726,10 @@
       <c r="F50" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="45" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -7378,21 +7742,23 @@
       <c r="F51" s="19" t="s">
         <v>329</v>
       </c>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="54"/>
+      <c r="E52" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="54" t="s">
         <v>329</v>
       </c>
+      <c r="G52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B53" s="0" t="s">
@@ -8267,11 +8633,11 @@
   </sheetPr>
   <dimension ref="B1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.23"/>
@@ -8280,134 +8646,146 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>442</v>
       </c>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>443</v>
       </c>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="31" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>446</v>
       </c>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="31" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>449</v>
       </c>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>450</v>
       </c>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>452</v>
       </c>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>453</v>
       </c>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>454</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="31" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>455</v>
       </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="31" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>458</v>
       </c>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="57" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8672,13 +9050,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D155"/>
+  <dimension ref="B1:D156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C162" activeCellId="0" sqref="C162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -8687,809 +9065,966 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>510</v>
       </c>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>511</v>
       </c>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>512</v>
       </c>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>513</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="6" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>514</v>
       </c>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>515</v>
       </c>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>516</v>
       </c>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>517</v>
       </c>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>518</v>
       </c>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>519</v>
       </c>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>520</v>
       </c>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>521</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="6" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>522</v>
       </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>523</v>
       </c>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>524</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="6" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>525</v>
       </c>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>526</v>
       </c>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>527</v>
       </c>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>528</v>
       </c>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>529</v>
       </c>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>530</v>
       </c>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>531</v>
       </c>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>532</v>
       </c>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>533</v>
       </c>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>534</v>
       </c>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>535</v>
       </c>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="4" t="s">
         <v>536</v>
       </c>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="4" t="s">
         <v>537</v>
       </c>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>538</v>
       </c>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="4" t="s">
         <v>539</v>
       </c>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>540</v>
       </c>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="4" t="s">
         <v>541</v>
       </c>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="4" t="s">
         <v>542</v>
       </c>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="4" t="s">
         <v>543</v>
       </c>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="4" t="s">
         <v>544</v>
       </c>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="4" t="s">
         <v>545</v>
       </c>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="4" t="s">
         <v>546</v>
       </c>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="4" t="s">
         <v>547</v>
       </c>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="4" t="s">
         <v>548</v>
       </c>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="4" t="s">
         <v>549</v>
       </c>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="4" t="s">
         <v>550</v>
       </c>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="4" t="s">
         <v>551</v>
       </c>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="4" t="s">
         <v>552</v>
       </c>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="4" t="s">
         <v>553</v>
       </c>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="4" t="s">
         <v>554</v>
       </c>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="4" t="s">
         <v>555</v>
       </c>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="4" t="s">
         <v>556</v>
       </c>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="4" t="s">
         <v>557</v>
       </c>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="4" t="s">
         <v>558</v>
       </c>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="4" t="s">
         <v>559</v>
       </c>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="4" t="s">
         <v>560</v>
       </c>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="4" t="s">
         <v>561</v>
       </c>
+      <c r="D53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="4" t="s">
         <v>562</v>
       </c>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="4" t="s">
         <v>563</v>
       </c>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="4" t="s">
         <v>564</v>
       </c>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="4" t="s">
         <v>565</v>
       </c>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="4" t="s">
         <v>566</v>
       </c>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="4" t="s">
         <v>567</v>
       </c>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="4" t="s">
         <v>568</v>
       </c>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="4" t="s">
         <v>569</v>
       </c>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="4" t="s">
         <v>570</v>
       </c>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="4" t="s">
         <v>571</v>
       </c>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="4" t="s">
         <v>572</v>
       </c>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="4" t="s">
         <v>573</v>
       </c>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="4" t="s">
         <v>574</v>
       </c>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="4" t="s">
         <v>575</v>
       </c>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="4" t="s">
         <v>576</v>
       </c>
+      <c r="D68" s="31"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="4" t="s">
         <v>577</v>
       </c>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="4" t="s">
         <v>578</v>
       </c>
+      <c r="D70" s="31"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="4" t="s">
         <v>579</v>
       </c>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="4" t="s">
         <v>580</v>
       </c>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="4" t="s">
         <v>581</v>
       </c>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="4" t="s">
         <v>582</v>
       </c>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="4" t="s">
         <v>583</v>
       </c>
+      <c r="D75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="4" t="s">
         <v>584</v>
       </c>
+      <c r="D76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>585</v>
       </c>
+      <c r="D77" s="31"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="4" t="s">
         <v>586</v>
       </c>
+      <c r="D78" s="31"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="4" t="s">
         <v>587</v>
       </c>
+      <c r="D79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="4" t="s">
         <v>588</v>
       </c>
+      <c r="D80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="4" t="s">
         <v>589</v>
       </c>
+      <c r="D81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="4" t="s">
         <v>590</v>
       </c>
+      <c r="D82" s="31"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="4" t="s">
         <v>591</v>
       </c>
+      <c r="D83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="4" t="s">
         <v>592</v>
       </c>
+      <c r="D84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="4" t="s">
         <v>593</v>
       </c>
+      <c r="D85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="4" t="s">
         <v>594</v>
       </c>
+      <c r="D86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="4" t="s">
         <v>595</v>
       </c>
+      <c r="D87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="4" t="s">
         <v>596</v>
       </c>
+      <c r="D88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="4" t="s">
         <v>597</v>
       </c>
+      <c r="D89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>460</v>
       </c>
+      <c r="D90" s="6" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="4" t="s">
         <v>599</v>
       </c>
+      <c r="D91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="4" t="s">
         <v>600</v>
       </c>
+      <c r="D92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="4" t="s">
         <v>601</v>
       </c>
+      <c r="D93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="4" t="s">
         <v>602</v>
       </c>
+      <c r="D94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="4" t="s">
         <v>603</v>
       </c>
+      <c r="D95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="4" t="s">
         <v>604</v>
       </c>
+      <c r="D96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="4" t="s">
         <v>605</v>
       </c>
+      <c r="D97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="4" t="s">
         <v>606</v>
       </c>
+      <c r="D98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="4" t="s">
         <v>607</v>
       </c>
+      <c r="D99" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="4" t="s">
         <v>608</v>
       </c>
+      <c r="D100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="4" t="s">
         <v>609</v>
       </c>
+      <c r="D101" s="31"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="4" t="s">
         <v>610</v>
       </c>
+      <c r="D102" s="31"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="4" t="s">
         <v>611</v>
       </c>
+      <c r="D103" s="31"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="4" t="s">
         <v>612</v>
       </c>
+      <c r="D104" s="31"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="4" t="s">
         <v>613</v>
       </c>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="4" t="s">
         <v>614</v>
       </c>
+      <c r="D106" s="31"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="4" t="s">
         <v>615</v>
       </c>
+      <c r="D107" s="31"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="4" t="s">
         <v>616</v>
       </c>
+      <c r="D108" s="31"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="4" t="s">
         <v>617</v>
       </c>
+      <c r="D109" s="31"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="4" t="s">
         <v>618</v>
       </c>
+      <c r="D110" s="31"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="4" t="s">
         <v>619</v>
       </c>
+      <c r="D111" s="31"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="4" t="s">
         <v>620</v>
       </c>
+      <c r="D112" s="31"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="4" t="s">
         <v>621</v>
       </c>
+      <c r="D113" s="31"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="4" t="s">
         <v>622</v>
       </c>
+      <c r="D114" s="31"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="4" t="s">
         <v>623</v>
       </c>
+      <c r="D115" s="31"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="4" t="s">
         <v>624</v>
       </c>
+      <c r="D116" s="31"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="4" t="s">
         <v>625</v>
       </c>
+      <c r="D117" s="31"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="4" t="s">
         <v>626</v>
       </c>
+      <c r="D118" s="31"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="4" t="s">
         <v>627</v>
       </c>
+      <c r="D119" s="31"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="4" t="s">
         <v>628</v>
       </c>
+      <c r="D120" s="31"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="4" t="s">
         <v>629</v>
       </c>
+      <c r="D121" s="31"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="4" t="s">
         <v>630</v>
       </c>
+      <c r="D122" s="31"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="4" t="s">
         <v>631</v>
       </c>
+      <c r="D123" s="31"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="4" t="s">
         <v>632</v>
       </c>
+      <c r="D124" s="31"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="4" t="s">
         <v>633</v>
       </c>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="4" t="s">
         <v>634</v>
       </c>
+      <c r="D126" s="31"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="4" t="s">
         <v>635</v>
       </c>
+      <c r="D127" s="31"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="4" t="s">
         <v>636</v>
       </c>
+      <c r="D128" s="31"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="4" t="s">
         <v>637</v>
       </c>
+      <c r="D129" s="31"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="4" t="s">
         <v>638</v>
       </c>
+      <c r="D130" s="31"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="4" t="s">
         <v>639</v>
       </c>
+      <c r="D131" s="31"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="4" t="s">
         <v>640</v>
       </c>
+      <c r="D132" s="31"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="4" t="s">
         <v>641</v>
       </c>
+      <c r="D133" s="31"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="4" t="s">
         <v>642</v>
       </c>
+      <c r="D134" s="31"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="4" t="s">
         <v>643</v>
       </c>
+      <c r="D135" s="31"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="4" t="s">
         <v>644</v>
       </c>
+      <c r="D136" s="31"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="4" t="s">
         <v>645</v>
       </c>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="4" t="s">
         <v>646</v>
       </c>
+      <c r="D138" s="31"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="4" t="s">
         <v>647</v>
       </c>
+      <c r="D139" s="31"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="4" t="s">
         <v>648</v>
       </c>
+      <c r="D140" s="31"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="4" t="s">
         <v>649</v>
       </c>
+      <c r="D141" s="31"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="4" t="s">
         <v>650</v>
       </c>
+      <c r="D142" s="31"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="4" t="s">
         <v>651</v>
       </c>
+      <c r="D143" s="31"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="4" t="s">
         <v>652</v>
       </c>
+      <c r="D144" s="31"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="4" t="s">
         <v>653</v>
       </c>
+      <c r="D145" s="31"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="4" t="s">
         <v>654</v>
       </c>
+      <c r="D146" s="31"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="4" t="s">
         <v>655</v>
       </c>
+      <c r="D147" s="31"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="4" t="s">
         <v>656</v>
       </c>
+      <c r="D148" s="31"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="4" t="s">
         <v>657</v>
       </c>
+      <c r="D149" s="31"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="4" t="s">
         <v>658</v>
       </c>
+      <c r="D150" s="31"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="4" t="s">
         <v>659</v>
       </c>
+      <c r="D151" s="31"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="4" t="s">
         <v>660</v>
       </c>
+      <c r="D152" s="31"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="4" t="s">
         <v>661</v>
       </c>
+      <c r="D153" s="31"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C154" s="54" t="s">
         <v>95</v>
+      </c>
+      <c r="D154" s="61" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B155" s="0" t="s">
         <v>663</v>
       </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
